--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="126">
   <si>
     <t>土地坐落</t>
   </si>
@@ -208,7 +208,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>馬祖酒廠實業股份有限公 司(未上市）</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1511,13 +1523,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1536,13 +1548,22 @@
       <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1558,6 +1579,15 @@
       </c>
       <c r="G2" s="2">
         <v>10000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1751</v>
       </c>
     </row>
   </sheetData>
@@ -1575,22 +1605,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>38</v>
@@ -1601,13 +1631,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -1627,13 +1657,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -1653,13 +1683,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1679,13 +1709,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>36.29</v>
@@ -1697,7 +1727,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1705,13 +1735,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>28.27</v>
@@ -1731,13 +1761,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>14.01</v>
@@ -1757,13 +1787,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2">
         <v>4.04</v>
@@ -1783,13 +1813,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -1819,16 +1849,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1836,16 +1866,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1853,16 +1883,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1870,16 +1900,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1887,16 +1917,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1904,16 +1934,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1921,16 +1951,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1938,16 +1968,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1955,16 +1985,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1972,16 +2002,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1989,16 +2019,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2006,16 +2036,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2023,16 +2053,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2040,16 +2070,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2057,16 +2087,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2074,16 +2104,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2091,16 +2121,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2108,16 +2138,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2125,16 +2155,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="128">
   <si>
     <t>土地坐落</t>
   </si>
@@ -208,6 +208,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -217,7 +220,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>馬祖酒廠實業股份有限公 司(未上市）</t>
+    <t>馬祖酒廠實業股份有限公司(未上市）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-27</t>
@@ -1523,13 +1529,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1557,13 +1563,16 @@
       <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1581,12 +1590,15 @@
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1751</v>
       </c>
     </row>
@@ -1605,22 +1617,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>38</v>
@@ -1631,13 +1643,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -1657,13 +1669,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -1683,13 +1695,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1709,13 +1721,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>36.29</v>
@@ -1727,7 +1739,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1735,13 +1747,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>28.27</v>
@@ -1761,13 +1773,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <v>14.01</v>
@@ -1787,13 +1799,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2">
         <v>4.04</v>
@@ -1813,13 +1825,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -1849,16 +1861,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1866,16 +1878,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1883,16 +1895,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1900,16 +1912,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1917,16 +1929,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1934,16 +1946,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1951,16 +1963,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1968,16 +1980,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1985,16 +1997,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2002,16 +2014,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2019,16 +2031,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2036,16 +2048,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2053,16 +2065,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2070,16 +2082,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2087,16 +2099,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2104,16 +2116,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2121,16 +2133,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2138,16 +2150,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2155,16 +2167,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
   <si>
     <t>土地坐落</t>
   </si>
@@ -211,6 +211,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -220,13 +223,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>馬祖酒廠實業股份有限公司(未上市）</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp5a001</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1529,13 +1544,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1566,13 +1581,22 @@
       <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1590,16 +1614,25 @@
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1751</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1617,22 +1650,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>38</v>
@@ -1643,13 +1676,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -1669,13 +1702,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -1695,13 +1728,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1721,13 +1754,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>36.29</v>
@@ -1739,7 +1772,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1747,13 +1780,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>28.27</v>
@@ -1773,13 +1806,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>14.01</v>
@@ -1799,13 +1832,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2">
         <v>4.04</v>
@@ -1825,13 +1858,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -1861,16 +1894,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1878,16 +1911,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1895,16 +1928,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1912,16 +1945,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1929,16 +1962,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1946,16 +1979,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1963,16 +1996,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1980,16 +2013,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1997,16 +2030,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2014,16 +2047,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2031,16 +2064,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2048,16 +2081,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2065,16 +2098,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2082,16 +2115,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2099,16 +2132,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2116,16 +2149,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2133,16 +2166,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2150,16 +2183,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2167,16 +2200,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,9 +20,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市士林區陽明段四小段06180000地號</t>
+  </si>
+  <si>
+    <t>新北市中和區景平段06560000地號</t>
+  </si>
+  <si>
+    <t>10000分之121</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>陳秀蘭</t>
+  </si>
+  <si>
+    <t>陳雪生</t>
+  </si>
+  <si>
+    <t>75年01月21日</t>
+  </si>
+  <si>
+    <t>81年06月18日</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>地籍圖重測</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp5a001</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,70 +130,34 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市士林區陽明段四小段 0618-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市中和區景平段0656-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 121</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>陳秀蘭</t>
-  </si>
-  <si>
-    <t>陳雪生</t>
-  </si>
-  <si>
-    <t>75年01月 21日</t>
-  </si>
-  <si>
-    <t>81年06月 18日</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>地籍圖重 測</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市士林區陽明段四小段 40893-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區陽明段四小段 40937-000 建號</t>
-  </si>
-  <si>
-    <t>新北市中和區景平段00310-000 建號</t>
+    <t>臺北市士林區陽明段四小段40893000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區陽明段四小段40937000建號</t>
+  </si>
+  <si>
+    <t>新北市中和區景平段00310000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 98</t>
-  </si>
-  <si>
-    <t>75年01月 21曰</t>
-  </si>
-  <si>
-    <t>62年06月 05日</t>
+    <t>10000分之98</t>
+  </si>
+  <si>
+    <t>75年01月21曰</t>
+  </si>
+  <si>
+    <t>62年06月05日</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(超過五年’含 陽台11.78平 方公尺）</t>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年含陽台11.78平方公尺）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -121,7 +172,7 @@
     <t>日產A32S</t>
   </si>
   <si>
-    <t>88年10月 16日</t>
+    <t>88年10月16日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -139,7 +190,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北富邦商業銀行士林分 行</t>
+    <t>台北富邦商業銀行士林分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -148,10 +199,10 @@
     <t>臺灣銀行馬祖分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司馬 祖郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司馬 袓郵局</t>
+    <t>中華郵政股份有限公司馬祖郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司馬袓郵局</t>
   </si>
   <si>
     <t>臺灣銀行天母分行</t>
@@ -160,13 +211,13 @@
     <t>大眾商業銀行天母分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行天母分 行</t>
+    <t>台新國際商業銀行天母分行</t>
   </si>
   <si>
     <t>安泰商業銀行天母分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行承德分 行</t>
+    <t>台北富邦商業銀行承德分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -190,12 +241,6 @@
     <t>澳幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -208,42 +253,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>馬祖酒廠實業股份有限公司(未上市）</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp5a001</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -283,25 +298,22 @@
     <t>摩根全球通網</t>
   </si>
   <si>
-    <t>曰盛國際商業 銀行</t>
+    <t>曰盛國際商業銀行</t>
   </si>
   <si>
     <t>安泰商業銀行</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行承德分行</t>
-  </si>
-  <si>
     <t>怡富基金</t>
   </si>
   <si>
-    <t>t 65,312</t>
+    <t>t65312</t>
   </si>
   <si>
     <t>保險公司</t>
   </si>
   <si>
-    <t>保險•名稱</t>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>要保人</t>
@@ -340,10 +352,10 @@
     <t>全福還本分紅終身保險</t>
   </si>
   <si>
-    <t>大多利率變動型年金保險(甲 型）</t>
-  </si>
-  <si>
-    <t>心得意利率變動型年金保險 (甲型）</t>
+    <t>大多利率變動型年金保險(甲型）</t>
+  </si>
+  <si>
+    <t>心得意利率變動型年金保險(甲型）</t>
   </si>
   <si>
     <t>豐華養老保險</t>
@@ -355,7 +367,7 @@
     <t>豐沛利率變動型養老保險</t>
   </si>
   <si>
-    <t>美利成增外幣養老保險（美 元）</t>
+    <t>美利成增外幣養老保險（美元）</t>
   </si>
   <si>
     <t>增美利外幣終身壽險(美元）</t>
@@ -400,13 +412,13 @@
     <t>991028投保</t>
   </si>
   <si>
-    <t>1000923 投保</t>
-  </si>
-  <si>
-    <t>1000608 投保</t>
-  </si>
-  <si>
-    <t>1010101 投保</t>
+    <t>1000923投保</t>
+  </si>
+  <si>
+    <t>1000608投保</t>
+  </si>
+  <si>
+    <t>1010101投保</t>
   </si>
   <si>
     <t>980112投保</t>
@@ -418,7 +430,7 @@
     <t>911122投保</t>
   </si>
   <si>
-    <t>1000704 投保</t>
+    <t>1000704投保</t>
   </si>
 </sst>
 </file>
@@ -777,13 +789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,57 +817,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1910</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>90.83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -873,25 +948,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -899,25 +974,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>111.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -925,25 +1000,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>590.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -951,25 +1026,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>64.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -987,22 +1062,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1010,22 +1085,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>2988</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1043,22 +1118,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1066,16 +1141,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1087,16 +1162,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1108,16 +1183,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1129,16 +1204,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1150,16 +1225,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1171,16 +1246,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1192,16 +1267,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1213,16 +1288,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1234,16 +1309,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1255,16 +1330,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
         <v>3616.65</v>
@@ -1278,16 +1353,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>10000</v>
@@ -1301,16 +1376,16 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>1463</v>
@@ -1324,16 +1399,16 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
         <v>35145.98</v>
@@ -1347,16 +1422,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1368,16 +1443,16 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1389,16 +1464,16 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1410,16 +1485,16 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2">
         <v>10281.82</v>
@@ -1433,16 +1508,16 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
         <v>42.84</v>
@@ -1456,16 +1531,16 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2">
         <v>749.99</v>
@@ -1479,16 +1554,16 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1500,16 +1575,16 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1521,16 +1596,16 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1552,43 +1627,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1596,10 +1671,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>1000</v>
@@ -1608,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1751</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
         <v>73</v>
@@ -1650,25 +1725,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1676,13 +1751,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -1691,7 +1766,7 @@
         <v>8.38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2">
         <v>419000</v>
@@ -1702,13 +1777,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -1717,7 +1792,7 @@
         <v>9.25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2">
         <v>82426</v>
@@ -1728,13 +1803,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1743,7 +1818,7 @@
         <v>88.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2">
         <v>15440</v>
@@ -1754,13 +1829,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>36.29</v>
@@ -1769,10 +1844,10 @@
         <v>62.21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1780,13 +1855,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2">
         <v>28.27</v>
@@ -1795,7 +1870,7 @@
         <v>64.48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>52735</v>
@@ -1806,13 +1881,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>14.01</v>
@@ -1821,7 +1896,7 @@
         <v>30.91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2">
         <v>12528</v>
@@ -1832,13 +1907,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>4.04</v>
@@ -1847,7 +1922,7 @@
         <v>89.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>10507</v>
@@ -1858,13 +1933,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -1873,7 +1948,7 @@
         <v>3.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
         <v>36300</v>
@@ -1894,16 +1969,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1911,16 +1986,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1928,16 +2003,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1945,16 +2020,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1962,16 +2037,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1979,16 +2054,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1996,16 +2071,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2013,16 +2088,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2030,16 +2105,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2047,16 +2122,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2064,16 +2139,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2081,16 +2156,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2098,16 +2173,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2115,16 +2190,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2132,16 +2207,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2149,16 +2224,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2166,16 +2241,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2183,16 +2258,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2200,16 +2275,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -64,135 +64,93 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市士林區陽明段四小段06180000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市中和區景平段06560000地號</t>
   </si>
   <si>
-    <t>10000分之121</t>
-  </si>
-  <si>
     <t>4分之1</t>
   </si>
   <si>
+    <t>陳雪生</t>
+  </si>
+  <si>
+    <t>81年06月18日</t>
+  </si>
+  <si>
+    <t>地籍圖重測</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp5a001</t>
+  </si>
+  <si>
+    <t>臺北市士林區陽明段四小段40893000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>陳秀蘭</t>
   </si>
   <si>
-    <t>陳雪生</t>
+    <t>75年01月21曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年含陽台11.78平方公尺）</t>
+  </si>
+  <si>
+    <t>臺北市士林區陽明段四小段40937000建號</t>
+  </si>
+  <si>
+    <t>新北市中和區景平段00310000建號</t>
+  </si>
+  <si>
+    <t>10000分之98</t>
   </si>
   <si>
     <t>75年01月21日</t>
   </si>
   <si>
-    <t>81年06月18日</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>地籍圖重測</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp5a001</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市士林區陽明段四小段40893000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區陽明段四小段40937000建號</t>
-  </si>
-  <si>
-    <t>新北市中和區景平段00310000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之98</t>
-  </si>
-  <si>
-    <t>75年01月21曰</t>
-  </si>
-  <si>
     <t>62年06月05日</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>第一次登記</t>
   </si>
   <si>
-    <t>(超過五年含陽台11.78平方公尺）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>日產A32S</t>
   </si>
   <si>
     <t>88年10月16日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行士林分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -220,9 +178,6 @@
     <t>台北富邦商業銀行承德分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>公教優惠儲蓄存款</t>
   </si>
   <si>
@@ -232,9 +187,6 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -250,33 +202,12 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>馬祖酒廠實業股份有限公司(未上市）</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>日盛基金</t>
   </si>
   <si>
+    <t>曰盛國際商業銀行</t>
+  </si>
+  <si>
     <t>駿利高收B1</t>
   </si>
   <si>
@@ -298,9 +229,6 @@
     <t>摩根全球通網</t>
   </si>
   <si>
-    <t>曰盛國際商業銀行</t>
-  </si>
-  <si>
     <t>安泰商業銀行</t>
   </si>
   <si>
@@ -310,21 +238,15 @@
     <t>t65312</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>终身壽險丙型</t>
+  </si>
+  <si>
+    <t>910710投保</t>
+  </si>
+  <si>
     <t>幸福人壽</t>
   </si>
   <si>
@@ -337,9 +259,6 @@
     <t>蘇黎世國際人壽</t>
   </si>
   <si>
-    <t>终身壽險丙型</t>
-  </si>
-  <si>
     <t>添富萬能壽險</t>
   </si>
   <si>
@@ -386,9 +305,6 @@
   </si>
   <si>
     <t>新雄多利保險甲型</t>
-  </si>
-  <si>
-    <t>910710投保</t>
   </si>
   <si>
     <t>970328投保</t>
@@ -789,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,99 +754,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1910</v>
+        <v>90.83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2">
         <v>1751</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>90.83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1751</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>22.7075</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -948,103 +829,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>111.7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>111.7</v>
+        <v>590.44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>590.44</v>
+        <v>64.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2">
-        <v>64.6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +909,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2988</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1062,553 +950,474 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>125467</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2988</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>125467</v>
+        <v>113164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>113164</v>
+        <v>1393761</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1393761</v>
+        <v>2620500</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2620500</v>
+        <v>1853200</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1853200</v>
+        <v>2381571</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>2381571</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>2000000</v>
+        <v>1490800</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1490800</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3616.65</v>
+      </c>
       <c r="G10" s="2">
-        <v>95</v>
+        <v>104630</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2">
-        <v>3616.65</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="2">
-        <v>104630</v>
+        <v>300800</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2">
-        <v>10000</v>
+        <v>1463</v>
       </c>
       <c r="G12" s="2">
-        <v>300800</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2">
-        <v>1463</v>
+        <v>35145.98</v>
       </c>
       <c r="G13" s="2">
-        <v>44007</v>
+        <v>1016773</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>35145.98</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1016773</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>132</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10281.82</v>
+      </c>
       <c r="G17" s="2">
-        <v>400000</v>
+        <v>297453</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2">
-        <v>10281.82</v>
+        <v>42.84</v>
       </c>
       <c r="G18" s="2">
-        <v>297453</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2">
-        <v>42.84</v>
+        <v>749.99</v>
       </c>
       <c r="G19" s="2">
-        <v>1239</v>
+        <v>21697</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2">
-        <v>749.99</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>21697</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>600000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>68</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
         <v>493164</v>
       </c>
     </row>
@@ -1619,13 +1428,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,16 +1442,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1664,50 +1473,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1751</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1725,232 +1490,206 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="E1" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>8.38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="H1" s="1">
+        <v>419000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
-        <v>50000</v>
+        <v>308.015</v>
       </c>
       <c r="F2" s="2">
-        <v>8.38</v>
+        <v>9.25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2">
-        <v>419000</v>
+        <v>82426</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
-        <v>308.015</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>9.25</v>
+        <v>88.95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
-        <v>82426</v>
+        <v>15440</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>36.29</v>
       </c>
       <c r="F4" s="2">
-        <v>88.95</v>
+        <v>62.21</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15440</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2">
-        <v>36.29</v>
+        <v>28.27</v>
       </c>
       <c r="F5" s="2">
-        <v>62.21</v>
+        <v>64.48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
+      </c>
+      <c r="H5" s="2">
+        <v>52735</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2">
-        <v>28.27</v>
+        <v>14.01</v>
       </c>
       <c r="F6" s="2">
-        <v>64.48</v>
+        <v>30.91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
-        <v>52735</v>
+        <v>12528</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2">
-        <v>14.01</v>
+        <v>4.04</v>
       </c>
       <c r="F7" s="2">
-        <v>30.91</v>
+        <v>89.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
-        <v>12528</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2">
-        <v>4.04</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="2">
-        <v>89.9</v>
+        <v>3.63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
-        <v>10507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3.63</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="2">
         <v>36300</v>
       </c>
     </row>
@@ -1961,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1969,322 +1708,305 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>121</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -70,18 +70,33 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市士林區陽明段四小段06180000地號</t>
+  </si>
+  <si>
     <t>新北市中和區景平段06560000地號</t>
   </si>
   <si>
+    <t>10000分之121</t>
+  </si>
+  <si>
     <t>4分之1</t>
   </si>
   <si>
+    <t>陳秀蘭</t>
+  </si>
+  <si>
     <t>陳雪生</t>
   </si>
   <si>
+    <t>75年01月21日</t>
+  </si>
+  <si>
     <t>81年06月18日</t>
   </si>
   <si>
+    <t>貝賈</t>
+  </si>
+  <si>
     <t>地籍圖重測</t>
   </si>
   <si>
@@ -103,39 +118,33 @@
     <t>臺北市士林區陽明段四小段40893000建號</t>
   </si>
   <si>
+    <t>臺北市士林區陽明段四小段40937000建號</t>
+  </si>
+  <si>
+    <t>新北市中和區景平段00310000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>陳秀蘭</t>
+    <t>10000分之98</t>
   </si>
   <si>
     <t>75年01月21曰</t>
   </si>
   <si>
+    <t>62年06月05日</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>(超過五年含陽台11.78平方公尺）</t>
   </si>
   <si>
-    <t>臺北市士林區陽明段四小段40937000建號</t>
-  </si>
-  <si>
-    <t>新北市中和區景平段00310000建號</t>
-  </si>
-  <si>
-    <t>10000分之98</t>
-  </si>
-  <si>
-    <t>75年01月21日</t>
-  </si>
-  <si>
-    <t>62年06月05日</t>
-  </si>
-  <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>日產A32S</t>
   </si>
   <si>
@@ -200,6 +209,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>馬祖酒廠實業股份有限公司(未上市）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>日盛基金</t>
@@ -705,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,54 +778,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>90.83</v>
+        <v>1910</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="M2" s="2">
         <v>1751</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0121</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>23.111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>90.83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.25</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>22.7075</v>
       </c>
     </row>
@@ -821,7 +889,890 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>111.7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>590.44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0098</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5.786312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>64.6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>64.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2988</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>125467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>125467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>113164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>1393761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>2620500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>1853200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>2381571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1490800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3616.65</v>
+      </c>
+      <c r="G11" s="2">
+        <v>104630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>300800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1463</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>35145.98</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1016773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10281.82</v>
+      </c>
+      <c r="G18" s="2">
+        <v>297453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42.84</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>749.99</v>
+      </c>
+      <c r="G20" s="2">
+        <v>21697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>493164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1751</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -829,867 +1780,232 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1">
-        <v>111.7</v>
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="E1" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>8.38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="H1" s="1">
+        <v>419000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>590.44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8.38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="H2" s="2">
+        <v>419000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2">
-        <v>64.6</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
+      </c>
+      <c r="E3" s="2">
+        <v>308.015</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2988</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>125467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>113164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>1393761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>2620500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>1853200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>2381571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1490800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3616.65</v>
-      </c>
-      <c r="G10" s="2">
-        <v>104630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>300800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1463</v>
-      </c>
-      <c r="G12" s="2">
-        <v>44007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2">
-        <v>35145.98</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1016773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>61</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>62</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10281.82</v>
-      </c>
-      <c r="G17" s="2">
-        <v>297453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2">
-        <v>42.84</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>65</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2">
-        <v>749.99</v>
-      </c>
-      <c r="G19" s="2">
-        <v>21697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>66</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>67</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>68</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>493164</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8.38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1">
-        <v>419000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2">
-        <v>308.015</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9.25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H3" s="2">
         <v>82426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
-        <v>88.95</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2">
-        <v>15440</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
-        <v>36.29</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>62.21</v>
+        <v>88.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="H4" s="2">
+        <v>15440</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
-        <v>28.27</v>
+        <v>36.29</v>
       </c>
       <c r="F5" s="2">
-        <v>64.48</v>
+        <v>62.21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="2">
-        <v>52735</v>
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2">
-        <v>14.01</v>
+        <v>28.27</v>
       </c>
       <c r="F6" s="2">
-        <v>30.91</v>
+        <v>64.48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
-        <v>12528</v>
+        <v>52735</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2">
-        <v>4.04</v>
+        <v>14.01</v>
       </c>
       <c r="F7" s="2">
-        <v>89.9</v>
+        <v>30.91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2">
-        <v>10507</v>
+        <v>12528</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="F8" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2">
         <v>10000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>3.63</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2">
         <v>36300</v>
       </c>
     </row>
@@ -1700,7 +2016,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1708,305 +2024,322 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>121</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>108</v>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>(超過五年含陽台11.78平方公尺）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>日產A32S</t>
@@ -1111,38 +1114,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1">
-        <v>2988</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2988</v>
@@ -1151,13 +1175,34 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1751</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1175,13 +1220,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1196,13 +1241,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1217,13 +1262,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1238,13 +1283,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1259,13 +1304,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1280,13 +1325,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1301,13 +1346,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1322,13 +1367,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1343,13 +1388,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1364,13 +1409,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1385,13 +1430,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1408,13 +1453,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1431,13 +1476,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1454,13 +1499,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1477,13 +1522,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1498,13 +1543,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1519,13 +1564,13 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1540,13 +1585,13 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1563,13 +1608,13 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -1586,13 +1631,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -1609,13 +1654,13 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -1630,13 +1675,13 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -1651,13 +1696,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -1688,13 +1733,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1726,7 +1771,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1738,13 +1783,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1780,13 +1825,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>50000</v>
@@ -1795,7 +1840,7 @@
         <v>8.38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1">
         <v>419000</v>
@@ -1806,13 +1851,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -1821,7 +1866,7 @@
         <v>8.38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>419000</v>
@@ -1832,13 +1877,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -1847,7 +1892,7 @@
         <v>9.25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2">
         <v>82426</v>
@@ -1858,13 +1903,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1873,7 +1918,7 @@
         <v>88.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2">
         <v>15440</v>
@@ -1884,13 +1929,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>36.29</v>
@@ -1899,10 +1944,10 @@
         <v>62.21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1910,13 +1955,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>28.27</v>
@@ -1925,7 +1970,7 @@
         <v>64.48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2">
         <v>52735</v>
@@ -1936,13 +1981,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>14.01</v>
@@ -1951,7 +1996,7 @@
         <v>30.91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2">
         <v>12528</v>
@@ -1962,13 +2007,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2">
         <v>4.04</v>
@@ -1977,7 +2022,7 @@
         <v>89.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2">
         <v>10507</v>
@@ -1988,13 +2033,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -2003,7 +2048,7 @@
         <v>3.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
         <v>36300</v>
@@ -2024,16 +2069,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2041,16 +2086,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2058,16 +2103,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2075,16 +2120,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2092,16 +2137,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2109,16 +2154,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2126,16 +2171,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2143,16 +2188,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2160,16 +2205,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2177,16 +2222,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2194,16 +2239,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2211,16 +2256,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2228,16 +2273,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2245,16 +2290,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2262,16 +2307,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2279,16 +2324,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2296,16 +2341,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2313,16 +2358,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2330,16 +2375,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -145,6 +145,9 @@
     <t>(超過五年含陽台11.78平方公尺）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>88年10月16日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行士林分行</t>
@@ -974,7 +980,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -1027,7 +1033,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1080,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1125,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1166,7 +1172,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>2988</v>
@@ -1175,7 +1181,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -1184,7 +1190,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1220,13 +1226,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1241,13 +1247,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1262,13 +1268,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1283,13 +1289,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1304,13 +1310,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1325,13 +1331,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1346,13 +1352,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1367,13 +1373,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1388,13 +1394,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1409,13 +1415,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1430,13 +1436,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1453,13 +1459,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1476,13 +1482,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1499,13 +1505,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1522,13 +1528,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1543,13 +1549,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1564,13 +1570,13 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1585,13 +1591,13 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1608,13 +1614,13 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -1631,13 +1637,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -1654,13 +1660,13 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -1675,13 +1681,13 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -1696,13 +1702,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -1733,13 +1739,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1771,7 +1777,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1783,13 +1789,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1825,13 +1831,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>50000</v>
@@ -1840,7 +1846,7 @@
         <v>8.38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1">
         <v>419000</v>
@@ -1851,13 +1857,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -1866,7 +1872,7 @@
         <v>8.38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2">
         <v>419000</v>
@@ -1877,13 +1883,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -1892,7 +1898,7 @@
         <v>9.25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2">
         <v>82426</v>
@@ -1903,13 +1909,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1918,7 +1924,7 @@
         <v>88.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2">
         <v>15440</v>
@@ -1929,13 +1935,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>36.29</v>
@@ -1944,10 +1950,10 @@
         <v>62.21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1955,13 +1961,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2">
         <v>28.27</v>
@@ -1970,7 +1976,7 @@
         <v>64.48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2">
         <v>52735</v>
@@ -1981,13 +1987,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2">
         <v>14.01</v>
@@ -1996,7 +2002,7 @@
         <v>30.91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2">
         <v>12528</v>
@@ -2007,13 +2013,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2">
         <v>4.04</v>
@@ -2022,7 +2028,7 @@
         <v>89.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2">
         <v>10507</v>
@@ -2033,13 +2039,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -2048,7 +2054,7 @@
         <v>3.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2">
         <v>36300</v>
@@ -2069,16 +2075,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2086,16 +2092,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2103,16 +2109,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2120,16 +2126,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2137,16 +2143,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2154,16 +2160,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2171,16 +2177,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2188,16 +2194,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2205,16 +2211,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2222,16 +2228,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2239,16 +2245,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2256,16 +2262,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2273,16 +2279,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2290,16 +2296,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2307,16 +2313,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2324,16 +2330,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2341,16 +2347,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2358,16 +2364,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2375,16 +2381,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -160,64 +160,73 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行士林分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行馬祖分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司馬祖郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司馬袓郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行天母分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行承德分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行馬祖分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司馬祖郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司馬袓郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行天母分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行承德分行</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>澳幣</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>馬祖酒廠實業股份有限公司(未上市）</t>
@@ -1218,13 +1227,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1235,487 +1244,933 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>125467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>125467</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>125467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>113164</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
         <v>48</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>113164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1393761</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2620500</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>2620500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1853200</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2381571</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>1490800</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="2">
-        <v>3616.65</v>
-      </c>
-      <c r="G11" s="2">
         <v>104630</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G12" s="2">
         <v>300800</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>1463</v>
-      </c>
-      <c r="G13" s="2">
         <v>44007</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1016773</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
         <v>59</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
-        <v>35145.98</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1016773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>357</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <v>10281.82</v>
-      </c>
-      <c r="G18" s="2">
         <v>297453</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="2">
-        <v>42.84</v>
-      </c>
-      <c r="G19" s="2">
         <v>1239</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <v>749.99</v>
-      </c>
-      <c r="G20" s="2">
         <v>21697</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>493164</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1751</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1739,13 +2194,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1777,7 +2232,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1789,13 +2244,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1831,13 +2286,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>50000</v>
@@ -1846,7 +2301,7 @@
         <v>8.38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1">
         <v>419000</v>
@@ -1857,13 +2312,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -1872,7 +2327,7 @@
         <v>8.38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
         <v>419000</v>
@@ -1883,13 +2338,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -1898,7 +2353,7 @@
         <v>9.25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>82426</v>
@@ -1909,13 +2364,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1924,7 +2379,7 @@
         <v>88.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2">
         <v>15440</v>
@@ -1935,13 +2390,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>36.29</v>
@@ -1950,10 +2405,10 @@
         <v>62.21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1961,13 +2416,13 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2">
         <v>28.27</v>
@@ -1976,7 +2431,7 @@
         <v>64.48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>52735</v>
@@ -1987,13 +2442,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>14.01</v>
@@ -2002,7 +2457,7 @@
         <v>30.91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2">
         <v>12528</v>
@@ -2013,13 +2468,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <v>4.04</v>
@@ -2028,7 +2483,7 @@
         <v>89.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2">
         <v>10507</v>
@@ -2039,13 +2494,13 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -2054,7 +2509,7 @@
         <v>3.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2">
         <v>36300</v>
@@ -2075,16 +2530,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2092,16 +2547,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2109,16 +2564,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2126,16 +2581,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2143,16 +2598,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2160,16 +2615,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2177,16 +2632,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2194,16 +2649,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2211,16 +2666,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2228,16 +2683,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2245,16 +2700,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2262,16 +2717,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2279,16 +2734,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2296,16 +2751,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2313,16 +2768,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2330,16 +2785,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2347,16 +2802,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2364,16 +2819,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2381,16 +2836,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -235,40 +235,43 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>日盛基金</t>
   </si>
   <si>
+    <t>駿利高收B1</t>
+  </si>
+  <si>
+    <t>美夢成真</t>
+  </si>
+  <si>
+    <t>貝萊德拉丁美洲</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業</t>
+  </si>
+  <si>
+    <t>施羅德能源</t>
+  </si>
+  <si>
+    <t>貝萊德新興歐洲</t>
+  </si>
+  <si>
+    <t>摩根全球通網</t>
+  </si>
+  <si>
     <t>曰盛國際商業銀行</t>
   </si>
   <si>
-    <t>駿利高收B1</t>
-  </si>
-  <si>
-    <t>美夢成真</t>
-  </si>
-  <si>
-    <t>貝萊德拉丁美洲</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業</t>
-  </si>
-  <si>
-    <t>施羅德能源</t>
-  </si>
-  <si>
-    <t>貝萊德新興歐洲</t>
-  </si>
-  <si>
-    <t>摩根全球通網</t>
-  </si>
-  <si>
     <t>安泰商業銀行</t>
   </si>
   <si>
     <t>怡富基金</t>
   </si>
   <si>
-    <t>t65312</t>
+    <t>fund</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2278,47 +2281,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8.38</v>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1">
-        <v>419000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>50000</v>
@@ -2332,8 +2356,29 @@
       <c r="H2" s="2">
         <v>419000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>84</v>
       </c>
@@ -2344,7 +2389,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>308.015</v>
@@ -2358,8 +2403,29 @@
       <c r="H3" s="2">
         <v>82426</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>85</v>
       </c>
@@ -2370,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -2384,8 +2450,29 @@
       <c r="H4" s="2">
         <v>15440</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>86</v>
       </c>
@@ -2407,11 +2494,32 @@
       <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="2">
+        <v>65312</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>87</v>
       </c>
@@ -2436,8 +2544,29 @@
       <c r="H6" s="2">
         <v>52735</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>88</v>
       </c>
@@ -2462,8 +2591,29 @@
       <c r="H7" s="2">
         <v>12528</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>89</v>
       </c>
@@ -2488,8 +2638,29 @@
       <c r="H8" s="2">
         <v>10507</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>90</v>
       </c>
@@ -2500,7 +2671,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2">
         <v>10000</v>
@@ -2513,6 +2684,27 @@
       </c>
       <c r="H9" s="2">
         <v>36300</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1751</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2530,16 +2722,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2547,16 +2739,16 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2564,16 +2756,16 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2581,16 +2773,16 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2598,16 +2790,16 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2615,16 +2807,16 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2632,16 +2824,16 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2649,16 +2841,16 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2666,16 +2858,16 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2683,16 +2875,16 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2700,16 +2892,16 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2717,16 +2909,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2734,16 +2926,16 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2751,16 +2943,16 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2768,16 +2960,16 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2785,16 +2977,16 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2802,16 +2994,16 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2819,16 +3011,16 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2836,16 +3028,16 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
+++ b/legislator/property/output/normal/陳雪生_2012-04-27_財產申報表_tmp5a001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -274,27 +274,27 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>幸福人壽</t>
+  </si>
+  <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>遠雄人壽</t>
+  </si>
+  <si>
+    <t>蘇黎世國際人壽</t>
+  </si>
+  <si>
     <t>终身壽險丙型</t>
   </si>
   <si>
-    <t>910710投保</t>
-  </si>
-  <si>
-    <t>幸福人壽</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>遠雄人壽</t>
-  </si>
-  <si>
-    <t>蘇黎世國際人壽</t>
-  </si>
-  <si>
     <t>添富萬能壽險</t>
   </si>
   <si>
@@ -343,46 +343,7 @@
     <t>新雄多利保險甲型</t>
   </si>
   <si>
-    <t>970328投保</t>
-  </si>
-  <si>
-    <t>970715投保</t>
-  </si>
-  <si>
-    <t>980928投保</t>
-  </si>
-  <si>
-    <t>990901投保</t>
-  </si>
-  <si>
-    <t>990929投保</t>
-  </si>
-  <si>
-    <t>卯1028投保</t>
-  </si>
-  <si>
-    <t>991028投保</t>
-  </si>
-  <si>
-    <t>1000923投保</t>
-  </si>
-  <si>
-    <t>1000608投保</t>
-  </si>
-  <si>
-    <t>1010101投保</t>
-  </si>
-  <si>
-    <t>980112投保</t>
-  </si>
-  <si>
-    <t>921120投保</t>
-  </si>
-  <si>
-    <t>911122投保</t>
-  </si>
-  <si>
-    <t>1000704投保</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2714,49 +2675,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>91</v>
@@ -2767,13 +2764,31 @@
       <c r="E3" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
@@ -2784,13 +2799,31 @@
       <c r="E4" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>93</v>
@@ -2799,15 +2832,33 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>94</v>
@@ -2816,15 +2867,33 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>95</v>
@@ -2833,15 +2902,33 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>96</v>
@@ -2850,15 +2937,33 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>97</v>
@@ -2867,15 +2972,33 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>98</v>
@@ -2884,15 +3007,33 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>97</v>
@@ -2901,15 +3042,33 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>99</v>
@@ -2918,15 +3077,33 @@
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>100</v>
@@ -2935,15 +3112,33 @@
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>101</v>
@@ -2952,15 +3147,33 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>102</v>
@@ -2969,15 +3182,33 @@
         <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>103</v>
@@ -2986,15 +3217,33 @@
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>104</v>
@@ -3003,15 +3252,33 @@
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>105</v>
@@ -3020,15 +3287,33 @@
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>106</v>
@@ -3037,7 +3322,25 @@
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1751</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
